--- a/eurojackpot.xlsx
+++ b/eurojackpot.xlsx
@@ -422,7 +422,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>8</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" t="n">
         <v>9</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="n">
         <v>7</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1247,17 +1247,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>11110</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>10101</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1267,7 +1267,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>00110</t>
+          <t>10101</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1277,7 +1277,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>11110</t>
+          <t>00110</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1474,7 +1474,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B4" t="n">
         <v>39</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>39</v>
@@ -1493,7 +1493,7 @@
         <v>46</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -1522,15 +1522,15 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
         <v>35</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="n">
         <v>35</v>
@@ -1546,15 +1546,15 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>34</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>34</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>34</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n">
         <v>33</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
         <v>33</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B21" t="n">
         <v>33</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B22" t="n">
         <v>32</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" t="n">
         <v>32</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B25" t="n">
         <v>32</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
         <v>30</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n">
         <v>30</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B33" t="n">
         <v>30</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
         <v>30</v>
@@ -1722,15 +1722,15 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36" t="n">
         <v>29</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B37" t="n">
         <v>29</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
         <v>29</v>
@@ -1754,15 +1754,15 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" t="n">
         <v>28</v>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -2401,7 +2401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2460,16 +2460,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>46</v>
@@ -2485,31 +2485,31 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>46</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
         <v>46</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2551,31 +2551,31 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
         <v>46</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2584,31 +2584,31 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2617,31 +2617,31 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2655,26 +2655,26 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2683,31 +2683,31 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2716,27 +2716,27 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2749,27 +2749,27 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2782,27 +2782,27 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2815,27 +2815,27 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2848,31 +2848,31 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>396</v>
+        <v>130</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
+        <v>24</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" t="n">
         <v>33</v>
       </c>
-      <c r="E15" t="n">
-        <v>34</v>
-      </c>
-      <c r="F15" t="n">
-        <v>35</v>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2881,28 +2881,28 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
+        <v>26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" t="n">
         <v>33</v>
       </c>
-      <c r="E16" t="n">
-        <v>34</v>
-      </c>
-      <c r="F16" t="n">
-        <v>35</v>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>3,2</t>
@@ -2914,31 +2914,31 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2947,31 +2947,31 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>414</v>
+        <v>147</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2985,26 +2985,26 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>421</v>
+        <v>155</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3013,27 +3013,27 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>424</v>
+        <v>158</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3046,31 +3046,31 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3079,27 +3079,27 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>439</v>
+        <v>168</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3112,31 +3112,31 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>442</v>
+        <v>171</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3145,31 +3145,31 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>467</v>
+        <v>181</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3178,31 +3178,31 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>482</v>
+        <v>184</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3211,27 +3211,27 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>496</v>
+        <v>218</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3244,27 +3244,27 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>504</v>
+        <v>220</v>
       </c>
       <c r="B27" t="n">
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3282,22 +3282,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>525</v>
+        <v>227</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3310,31 +3310,31 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>531</v>
+        <v>230</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3343,31 +3343,31 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>535</v>
+        <v>233</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3376,27 +3376,27 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>540</v>
+        <v>274</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3409,27 +3409,27 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>543</v>
+        <v>279</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E32" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F32" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3442,31 +3442,31 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>565</v>
+        <v>326</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E33" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F33" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3475,31 +3475,31 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>566</v>
+        <v>332</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E34" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3508,31 +3508,31 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>578</v>
+        <v>352</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
+        <v>24</v>
+      </c>
+      <c r="E35" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="n">
-        <v>35</v>
-      </c>
       <c r="F35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3541,31 +3541,31 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>586</v>
+        <v>355</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
+        <v>24</v>
+      </c>
+      <c r="E36" t="n">
         <v>33</v>
       </c>
-      <c r="E36" t="n">
-        <v>35</v>
-      </c>
       <c r="F36" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3574,31 +3574,31 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>589</v>
+        <v>371</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E37" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3607,31 +3607,31 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>593</v>
+        <v>377</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E38" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F38" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3640,31 +3640,31 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>599</v>
+        <v>437</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E39" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3673,31 +3673,31 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>607</v>
+        <v>534</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E40" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F40" t="n">
         <v>41</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3706,31 +3706,31 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E41" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C42" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E42" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F42" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E43" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3805,27 +3805,27 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>656</v>
+        <v>607</v>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F44" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3843,26 +3843,26 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>661</v>
+        <v>616</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D45" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F45" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3871,31 +3871,31 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F46" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3904,31 +3904,31 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>700</v>
+        <v>641</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F47" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3937,31 +3937,31 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>783</v>
+        <v>648</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E48" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3975,26 +3975,26 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>812</v>
+        <v>654</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E49" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F49" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4003,31 +4003,31 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>855</v>
+        <v>665</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D50" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E50" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F50" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4036,31 +4036,31 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>861</v>
+        <v>674</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
         <v>22</v>
       </c>
       <c r="D51" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E51" t="n">
+        <v>27</v>
+      </c>
+      <c r="F51" t="n">
         <v>33</v>
       </c>
-      <c r="F51" t="n">
-        <v>35</v>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4069,31 +4069,31 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>911</v>
+        <v>687</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
         <v>22</v>
       </c>
       <c r="D52" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F52" t="n">
         <v>41</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4107,22 +4107,22 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1010</v>
+        <v>716</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E53" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F53" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4140,22 +4140,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1014</v>
+        <v>724</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
         <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E54" t="n">
         <v>33</v>
       </c>
       <c r="F54" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -4168,31 +4168,31 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1027</v>
+        <v>727</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E55" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F55" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1037</v>
+        <v>736</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D56" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E56" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F56" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4234,27 +4234,27 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1042</v>
+        <v>774</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
         <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F57" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4267,31 +4267,31 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1127</v>
+        <v>785</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C58" t="n">
         <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F58" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4305,26 +4305,26 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1256</v>
+        <v>798</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D59" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E59" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F59" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4338,26 +4338,26 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1269</v>
+        <v>840</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D60" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E60" t="n">
+        <v>27</v>
+      </c>
+      <c r="F60" t="n">
         <v>41</v>
       </c>
-      <c r="F60" t="n">
-        <v>46</v>
-      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4366,31 +4366,31 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1298</v>
+        <v>846</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D61" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E61" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F61" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4404,26 +4404,26 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1320</v>
+        <v>875</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E62" t="n">
+        <v>33</v>
+      </c>
+      <c r="F62" t="n">
         <v>41</v>
       </c>
-      <c r="F62" t="n">
-        <v>46</v>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4437,22 +4437,22 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1734</v>
+        <v>878</v>
       </c>
       <c r="B63" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D63" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E63" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4465,27 +4465,27 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1740</v>
+        <v>905</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E64" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4498,31 +4498,31 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1749</v>
+        <v>913</v>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D65" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F65" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4531,24 +4531,24 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1759</v>
+        <v>919</v>
       </c>
       <c r="B66" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E66" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F66" t="n">
         <v>48</v>
@@ -4569,22 +4569,22 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1769</v>
+        <v>924</v>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D67" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E67" t="n">
+        <v>27</v>
+      </c>
+      <c r="F67" t="n">
         <v>33</v>
-      </c>
-      <c r="F67" t="n">
-        <v>34</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4602,26 +4602,26 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1774</v>
+        <v>931</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D68" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E68" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F68" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4630,31 +4630,31 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1780</v>
+        <v>937</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D69" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E69" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F69" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4663,31 +4663,31 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1784</v>
+        <v>968</v>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E70" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4696,24 +4696,24 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1797</v>
+        <v>979</v>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D71" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E71" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F71" t="n">
         <v>41</v>
@@ -4734,22 +4734,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1798</v>
+        <v>990</v>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E72" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F72" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4767,22 +4767,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1813</v>
+        <v>1003</v>
       </c>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F73" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4795,27 +4795,27 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1823</v>
+        <v>1007</v>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E74" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F74" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4833,26 +4833,26 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1841</v>
+        <v>1014</v>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E75" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F75" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4861,31 +4861,31 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1856</v>
+        <v>1017</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E76" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F76" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4894,27 +4894,27 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1865</v>
+        <v>1029</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E77" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F77" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4927,31 +4927,31 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1891</v>
+        <v>1032</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E78" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F78" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4960,31 +4960,31 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1897</v>
+        <v>1059</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
         <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E79" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F79" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4993,15 +4993,15 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1906</v>
+        <v>1062</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
         <v>15</v>
@@ -5010,10 +5010,10 @@
         <v>22</v>
       </c>
       <c r="E80" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F80" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5031,22 +5031,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1930</v>
+        <v>1074</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C81" t="n">
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E81" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F81" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5059,31 +5059,31 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1956</v>
+        <v>1077</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
         <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E82" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F82" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5092,27 +5092,27 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1971</v>
+        <v>1089</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C83" t="n">
         <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E83" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5125,12 +5125,12 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1987</v>
+        <v>1091</v>
       </c>
       <c r="B84" t="n">
         <v>10</v>
@@ -5139,17 +5139,17 @@
         <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E84" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F84" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5158,27 +5158,27 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1992</v>
+        <v>1098</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
         <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E85" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F85" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5191,31 +5191,31 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>2003</v>
+        <v>1124</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E86" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F86" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5224,27 +5224,27 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>2009</v>
+        <v>1151</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" t="n">
         <v>33</v>
       </c>
       <c r="F87" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5257,31 +5257,31 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>2018</v>
+        <v>1201</v>
       </c>
       <c r="B88" t="n">
+        <v>9</v>
+      </c>
+      <c r="C88" t="n">
         <v>10</v>
       </c>
-      <c r="C88" t="n">
-        <v>15</v>
-      </c>
       <c r="D88" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E88" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F88" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5290,27 +5290,27 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>2021</v>
+        <v>1208</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E89" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F89" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5323,27 +5323,27 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>2046</v>
+        <v>1211</v>
       </c>
       <c r="B90" t="n">
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E90" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5356,12 +5356,12 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>2061</v>
+        <v>1262</v>
       </c>
       <c r="B91" t="n">
         <v>10</v>
@@ -5370,17 +5370,17 @@
         <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E91" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F91" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5389,31 +5389,31 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>2075</v>
+        <v>1266</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D92" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E92" t="n">
+        <v>31</v>
+      </c>
+      <c r="F92" t="n">
         <v>33</v>
       </c>
-      <c r="F92" t="n">
-        <v>48</v>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5422,31 +5422,31 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2083</v>
+        <v>1283</v>
       </c>
       <c r="B93" t="n">
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E93" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F93" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5460,26 +5460,26 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>2096</v>
+        <v>1291</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F94" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5488,27 +5488,27 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>2102</v>
+        <v>1294</v>
       </c>
       <c r="B95" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E95" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F95" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5521,27 +5521,27 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>2111</v>
+        <v>1307</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C96" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F96" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5554,27 +5554,27 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>2117</v>
+        <v>1325</v>
       </c>
       <c r="B97" t="n">
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5587,31 +5587,31 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>2132</v>
+        <v>1332</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D98" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
         <v>41</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5620,31 +5620,31 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>2221</v>
+        <v>1340</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D99" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E99" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F99" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5653,27 +5653,27 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>2225</v>
+        <v>1343</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D100" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E100" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F100" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5686,31 +5686,31 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>2227</v>
+        <v>1349</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D101" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E101" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F101" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5719,27 +5719,27 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>2231</v>
+        <v>1361</v>
       </c>
       <c r="B102" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E102" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F102" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5757,26 +5757,26 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>2239</v>
+        <v>1383</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E103" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F103" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5785,31 +5785,31 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>2249</v>
+        <v>1386</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D104" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E104" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F104" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5818,27 +5818,27 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>2255</v>
+        <v>1392</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D105" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E105" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F105" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5856,23 +5856,23 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>2264</v>
+        <v>1394</v>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D106" t="n">
         <v>22</v>
       </c>
       <c r="E106" t="n">
+        <v>31</v>
+      </c>
+      <c r="F106" t="n">
         <v>41</v>
       </c>
-      <c r="F106" t="n">
-        <v>45</v>
-      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>2,3</t>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>2292</v>
+        <v>1403</v>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D107" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E107" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F107" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5917,31 +5917,31 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>2307</v>
+        <v>1411</v>
       </c>
       <c r="B108" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E108" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5950,27 +5950,27 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>2322</v>
+        <v>1414</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D109" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E109" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F109" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5983,31 +5983,31 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>2329</v>
+        <v>1420</v>
       </c>
       <c r="B110" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E110" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F110" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6021,23 +6021,23 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>2337</v>
+        <v>1427</v>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D111" t="n">
+        <v>26</v>
+      </c>
+      <c r="E111" t="n">
+        <v>31</v>
+      </c>
+      <c r="F111" t="n">
         <v>33</v>
       </c>
-      <c r="E111" t="n">
-        <v>34</v>
-      </c>
-      <c r="F111" t="n">
-        <v>41</v>
-      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>3,2</t>
@@ -6049,31 +6049,31 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>2343</v>
+        <v>1460</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E112" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F112" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6082,31 +6082,31 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>2351</v>
+        <v>1469</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E113" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F113" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6115,24 +6115,24 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>2358</v>
+        <v>1481</v>
       </c>
       <c r="B114" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D114" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E114" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F114" t="n">
         <v>41</v>
@@ -6148,27 +6148,27 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>2366</v>
+        <v>1495</v>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E115" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F115" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6181,24 +6181,24 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>2381</v>
+        <v>1522</v>
       </c>
       <c r="B116" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
         <v>22</v>
       </c>
       <c r="D116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E116" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F116" t="n">
         <v>33</v>
@@ -6214,28 +6214,28 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>2400</v>
+        <v>1524</v>
       </c>
       <c r="B117" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C117" t="n">
         <v>22</v>
       </c>
       <c r="D117" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E117" t="n">
+        <v>31</v>
+      </c>
+      <c r="F117" t="n">
         <v>33</v>
       </c>
-      <c r="F117" t="n">
-        <v>36</v>
-      </c>
       <c r="G117" t="inlineStr">
         <is>
           <t>3,2</t>
@@ -6247,28 +6247,28 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>2405</v>
+        <v>1531</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E118" t="n">
+        <v>31</v>
+      </c>
+      <c r="F118" t="n">
         <v>33</v>
       </c>
-      <c r="F118" t="n">
-        <v>48</v>
-      </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>3,2</t>
@@ -6280,31 +6280,31 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>2412</v>
+        <v>1534</v>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D119" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E119" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F119" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6313,31 +6313,31 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>2432</v>
+        <v>1537</v>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D120" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E120" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F120" t="n">
         <v>41</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6346,24 +6346,24 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>2447</v>
+        <v>1558</v>
       </c>
       <c r="B121" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D121" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E121" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F121" t="n">
         <v>41</v>
@@ -6379,31 +6379,31 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>2461</v>
+        <v>1578</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E122" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F122" t="n">
         <v>48</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6412,27 +6412,27 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>2469</v>
+        <v>1601</v>
       </c>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D123" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E123" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F123" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6445,27 +6445,27 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>2617</v>
+        <v>1608</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E124" t="n">
+        <v>31</v>
+      </c>
+      <c r="F124" t="n">
         <v>33</v>
-      </c>
-      <c r="F124" t="n">
-        <v>45</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6483,23 +6483,23 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>2673</v>
+        <v>1649</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C125" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D125" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E125" t="n">
+        <v>31</v>
+      </c>
+      <c r="F125" t="n">
         <v>41</v>
       </c>
-      <c r="F125" t="n">
-        <v>45</v>
-      </c>
       <c r="G125" t="inlineStr">
         <is>
           <t>3,2</t>
@@ -6511,24 +6511,24 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>2787</v>
+        <v>1651</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D126" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E126" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F126" t="n">
         <v>41</v>
@@ -6545,6 +6545,3537 @@
       </c>
       <c r="I126" t="n">
         <v>127</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>1658</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11</v>
+      </c>
+      <c r="C127" t="n">
+        <v>18</v>
+      </c>
+      <c r="D127" t="n">
+        <v>26</v>
+      </c>
+      <c r="E127" t="n">
+        <v>31</v>
+      </c>
+      <c r="F127" t="n">
+        <v>41</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B128" t="n">
+        <v>10</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11</v>
+      </c>
+      <c r="D128" t="n">
+        <v>26</v>
+      </c>
+      <c r="E128" t="n">
+        <v>31</v>
+      </c>
+      <c r="F128" t="n">
+        <v>41</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>1703</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>10</v>
+      </c>
+      <c r="D129" t="n">
+        <v>27</v>
+      </c>
+      <c r="E129" t="n">
+        <v>31</v>
+      </c>
+      <c r="F129" t="n">
+        <v>48</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11</v>
+      </c>
+      <c r="D130" t="n">
+        <v>26</v>
+      </c>
+      <c r="E130" t="n">
+        <v>31</v>
+      </c>
+      <c r="F130" t="n">
+        <v>48</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="B131" t="n">
+        <v>10</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11</v>
+      </c>
+      <c r="D131" t="n">
+        <v>27</v>
+      </c>
+      <c r="E131" t="n">
+        <v>31</v>
+      </c>
+      <c r="F131" t="n">
+        <v>48</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15</v>
+      </c>
+      <c r="C132" t="n">
+        <v>19</v>
+      </c>
+      <c r="D132" t="n">
+        <v>22</v>
+      </c>
+      <c r="E132" t="n">
+        <v>27</v>
+      </c>
+      <c r="F132" t="n">
+        <v>46</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>1729</v>
+      </c>
+      <c r="B133" t="n">
+        <v>10</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15</v>
+      </c>
+      <c r="D133" t="n">
+        <v>19</v>
+      </c>
+      <c r="E133" t="n">
+        <v>33</v>
+      </c>
+      <c r="F133" t="n">
+        <v>46</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15</v>
+      </c>
+      <c r="C134" t="n">
+        <v>18</v>
+      </c>
+      <c r="D134" t="n">
+        <v>19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>27</v>
+      </c>
+      <c r="F134" t="n">
+        <v>46</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>1763</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>19</v>
+      </c>
+      <c r="D135" t="n">
+        <v>22</v>
+      </c>
+      <c r="E135" t="n">
+        <v>33</v>
+      </c>
+      <c r="F135" t="n">
+        <v>46</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>19</v>
+      </c>
+      <c r="D136" t="n">
+        <v>22</v>
+      </c>
+      <c r="E136" t="n">
+        <v>27</v>
+      </c>
+      <c r="F136" t="n">
+        <v>46</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>1788</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11</v>
+      </c>
+      <c r="C137" t="n">
+        <v>19</v>
+      </c>
+      <c r="D137" t="n">
+        <v>22</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27</v>
+      </c>
+      <c r="F137" t="n">
+        <v>46</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>1798</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>18</v>
+      </c>
+      <c r="D138" t="n">
+        <v>19</v>
+      </c>
+      <c r="E138" t="n">
+        <v>33</v>
+      </c>
+      <c r="F138" t="n">
+        <v>46</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>1801</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11</v>
+      </c>
+      <c r="C139" t="n">
+        <v>18</v>
+      </c>
+      <c r="D139" t="n">
+        <v>19</v>
+      </c>
+      <c r="E139" t="n">
+        <v>33</v>
+      </c>
+      <c r="F139" t="n">
+        <v>46</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>1819</v>
+      </c>
+      <c r="B140" t="n">
+        <v>10</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11</v>
+      </c>
+      <c r="D140" t="n">
+        <v>19</v>
+      </c>
+      <c r="E140" t="n">
+        <v>33</v>
+      </c>
+      <c r="F140" t="n">
+        <v>46</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>18</v>
+      </c>
+      <c r="D141" t="n">
+        <v>19</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27</v>
+      </c>
+      <c r="F141" t="n">
+        <v>46</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11</v>
+      </c>
+      <c r="C142" t="n">
+        <v>18</v>
+      </c>
+      <c r="D142" t="n">
+        <v>19</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27</v>
+      </c>
+      <c r="F142" t="n">
+        <v>46</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>10</v>
+      </c>
+      <c r="D143" t="n">
+        <v>19</v>
+      </c>
+      <c r="E143" t="n">
+        <v>41</v>
+      </c>
+      <c r="F143" t="n">
+        <v>46</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B144" t="n">
+        <v>10</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11</v>
+      </c>
+      <c r="D144" t="n">
+        <v>19</v>
+      </c>
+      <c r="E144" t="n">
+        <v>41</v>
+      </c>
+      <c r="F144" t="n">
+        <v>46</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>19</v>
+      </c>
+      <c r="D145" t="n">
+        <v>26</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27</v>
+      </c>
+      <c r="F145" t="n">
+        <v>46</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B146" t="n">
+        <v>11</v>
+      </c>
+      <c r="C146" t="n">
+        <v>19</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27</v>
+      </c>
+      <c r="F146" t="n">
+        <v>46</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15</v>
+      </c>
+      <c r="D147" t="n">
+        <v>22</v>
+      </c>
+      <c r="E147" t="n">
+        <v>33</v>
+      </c>
+      <c r="F147" t="n">
+        <v>46</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15</v>
+      </c>
+      <c r="D148" t="n">
+        <v>22</v>
+      </c>
+      <c r="E148" t="n">
+        <v>33</v>
+      </c>
+      <c r="F148" t="n">
+        <v>46</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15</v>
+      </c>
+      <c r="D149" t="n">
+        <v>22</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27</v>
+      </c>
+      <c r="F149" t="n">
+        <v>46</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15</v>
+      </c>
+      <c r="D150" t="n">
+        <v>22</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27</v>
+      </c>
+      <c r="F150" t="n">
+        <v>46</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15</v>
+      </c>
+      <c r="D151" t="n">
+        <v>18</v>
+      </c>
+      <c r="E151" t="n">
+        <v>33</v>
+      </c>
+      <c r="F151" t="n">
+        <v>46</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15</v>
+      </c>
+      <c r="D152" t="n">
+        <v>18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>33</v>
+      </c>
+      <c r="F152" t="n">
+        <v>46</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15</v>
+      </c>
+      <c r="D153" t="n">
+        <v>26</v>
+      </c>
+      <c r="E153" t="n">
+        <v>33</v>
+      </c>
+      <c r="F153" t="n">
+        <v>46</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15</v>
+      </c>
+      <c r="D154" t="n">
+        <v>18</v>
+      </c>
+      <c r="E154" t="n">
+        <v>41</v>
+      </c>
+      <c r="F154" t="n">
+        <v>46</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>10</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15</v>
+      </c>
+      <c r="E155" t="n">
+        <v>41</v>
+      </c>
+      <c r="F155" t="n">
+        <v>46</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B156" t="n">
+        <v>10</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15</v>
+      </c>
+      <c r="E156" t="n">
+        <v>41</v>
+      </c>
+      <c r="F156" t="n">
+        <v>46</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15</v>
+      </c>
+      <c r="D157" t="n">
+        <v>26</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27</v>
+      </c>
+      <c r="F157" t="n">
+        <v>46</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15</v>
+      </c>
+      <c r="E158" t="n">
+        <v>46</v>
+      </c>
+      <c r="F158" t="n">
+        <v>48</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15</v>
+      </c>
+      <c r="D159" t="n">
+        <v>26</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27</v>
+      </c>
+      <c r="F159" t="n">
+        <v>46</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11</v>
+      </c>
+      <c r="D160" t="n">
+        <v>22</v>
+      </c>
+      <c r="E160" t="n">
+        <v>33</v>
+      </c>
+      <c r="F160" t="n">
+        <v>46</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11</v>
+      </c>
+      <c r="D161" t="n">
+        <v>22</v>
+      </c>
+      <c r="E161" t="n">
+        <v>41</v>
+      </c>
+      <c r="F161" t="n">
+        <v>46</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>2121</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27</v>
+      </c>
+      <c r="E162" t="n">
+        <v>33</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11</v>
+      </c>
+      <c r="D163" t="n">
+        <v>26</v>
+      </c>
+      <c r="E163" t="n">
+        <v>33</v>
+      </c>
+      <c r="F163" t="n">
+        <v>46</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>2131</v>
+      </c>
+      <c r="B164" t="n">
+        <v>10</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27</v>
+      </c>
+      <c r="E164" t="n">
+        <v>33</v>
+      </c>
+      <c r="F164" t="n">
+        <v>46</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11</v>
+      </c>
+      <c r="D165" t="n">
+        <v>18</v>
+      </c>
+      <c r="E165" t="n">
+        <v>41</v>
+      </c>
+      <c r="F165" t="n">
+        <v>46</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11</v>
+      </c>
+      <c r="D166" t="n">
+        <v>26</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27</v>
+      </c>
+      <c r="F166" t="n">
+        <v>46</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>2230</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15</v>
+      </c>
+      <c r="C167" t="n">
+        <v>19</v>
+      </c>
+      <c r="D167" t="n">
+        <v>22</v>
+      </c>
+      <c r="E167" t="n">
+        <v>26</v>
+      </c>
+      <c r="F167" t="n">
+        <v>41</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B168" t="n">
+        <v>10</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15</v>
+      </c>
+      <c r="D168" t="n">
+        <v>19</v>
+      </c>
+      <c r="E168" t="n">
+        <v>33</v>
+      </c>
+      <c r="F168" t="n">
+        <v>48</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>2279</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15</v>
+      </c>
+      <c r="C169" t="n">
+        <v>18</v>
+      </c>
+      <c r="D169" t="n">
+        <v>19</v>
+      </c>
+      <c r="E169" t="n">
+        <v>26</v>
+      </c>
+      <c r="F169" t="n">
+        <v>41</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>2289</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15</v>
+      </c>
+      <c r="C170" t="n">
+        <v>18</v>
+      </c>
+      <c r="D170" t="n">
+        <v>19</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27</v>
+      </c>
+      <c r="F170" t="n">
+        <v>48</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B171" t="n">
+        <v>10</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15</v>
+      </c>
+      <c r="D171" t="n">
+        <v>19</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27</v>
+      </c>
+      <c r="F171" t="n">
+        <v>48</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15</v>
+      </c>
+      <c r="D172" t="n">
+        <v>19</v>
+      </c>
+      <c r="E172" t="n">
+        <v>26</v>
+      </c>
+      <c r="F172" t="n">
+        <v>48</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B173" t="n">
+        <v>18</v>
+      </c>
+      <c r="C173" t="n">
+        <v>19</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27</v>
+      </c>
+      <c r="F173" t="n">
+        <v>33</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B174" t="n">
+        <v>10</v>
+      </c>
+      <c r="C174" t="n">
+        <v>19</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22</v>
+      </c>
+      <c r="E174" t="n">
+        <v>33</v>
+      </c>
+      <c r="F174" t="n">
+        <v>41</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B175" t="n">
+        <v>19</v>
+      </c>
+      <c r="C175" t="n">
+        <v>22</v>
+      </c>
+      <c r="D175" t="n">
+        <v>26</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27</v>
+      </c>
+      <c r="F175" t="n">
+        <v>33</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B176" t="n">
+        <v>18</v>
+      </c>
+      <c r="C176" t="n">
+        <v>19</v>
+      </c>
+      <c r="D176" t="n">
+        <v>22</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27</v>
+      </c>
+      <c r="F176" t="n">
+        <v>41</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B177" t="n">
+        <v>10</v>
+      </c>
+      <c r="C177" t="n">
+        <v>19</v>
+      </c>
+      <c r="D177" t="n">
+        <v>22</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27</v>
+      </c>
+      <c r="F177" t="n">
+        <v>41</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>2392</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11</v>
+      </c>
+      <c r="C178" t="n">
+        <v>19</v>
+      </c>
+      <c r="D178" t="n">
+        <v>22</v>
+      </c>
+      <c r="E178" t="n">
+        <v>26</v>
+      </c>
+      <c r="F178" t="n">
+        <v>41</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>2398</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>19</v>
+      </c>
+      <c r="D179" t="n">
+        <v>22</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27</v>
+      </c>
+      <c r="F179" t="n">
+        <v>48</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>2409</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11</v>
+      </c>
+      <c r="C180" t="n">
+        <v>19</v>
+      </c>
+      <c r="D180" t="n">
+        <v>22</v>
+      </c>
+      <c r="E180" t="n">
+        <v>27</v>
+      </c>
+      <c r="F180" t="n">
+        <v>48</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>2417</v>
+      </c>
+      <c r="B181" t="n">
+        <v>10</v>
+      </c>
+      <c r="C181" t="n">
+        <v>18</v>
+      </c>
+      <c r="D181" t="n">
+        <v>19</v>
+      </c>
+      <c r="E181" t="n">
+        <v>33</v>
+      </c>
+      <c r="F181" t="n">
+        <v>41</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>2425</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9</v>
+      </c>
+      <c r="C182" t="n">
+        <v>18</v>
+      </c>
+      <c r="D182" t="n">
+        <v>19</v>
+      </c>
+      <c r="E182" t="n">
+        <v>33</v>
+      </c>
+      <c r="F182" t="n">
+        <v>48</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>2428</v>
+      </c>
+      <c r="B183" t="n">
+        <v>18</v>
+      </c>
+      <c r="C183" t="n">
+        <v>19</v>
+      </c>
+      <c r="D183" t="n">
+        <v>26</v>
+      </c>
+      <c r="E183" t="n">
+        <v>27</v>
+      </c>
+      <c r="F183" t="n">
+        <v>33</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>2434</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11</v>
+      </c>
+      <c r="C184" t="n">
+        <v>18</v>
+      </c>
+      <c r="D184" t="n">
+        <v>19</v>
+      </c>
+      <c r="E184" t="n">
+        <v>33</v>
+      </c>
+      <c r="F184" t="n">
+        <v>48</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>2446</v>
+      </c>
+      <c r="B185" t="n">
+        <v>10</v>
+      </c>
+      <c r="C185" t="n">
+        <v>19</v>
+      </c>
+      <c r="D185" t="n">
+        <v>26</v>
+      </c>
+      <c r="E185" t="n">
+        <v>33</v>
+      </c>
+      <c r="F185" t="n">
+        <v>41</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>2457</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9</v>
+      </c>
+      <c r="C186" t="n">
+        <v>10</v>
+      </c>
+      <c r="D186" t="n">
+        <v>19</v>
+      </c>
+      <c r="E186" t="n">
+        <v>33</v>
+      </c>
+      <c r="F186" t="n">
+        <v>48</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>2468</v>
+      </c>
+      <c r="B187" t="n">
+        <v>10</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11</v>
+      </c>
+      <c r="D187" t="n">
+        <v>19</v>
+      </c>
+      <c r="E187" t="n">
+        <v>33</v>
+      </c>
+      <c r="F187" t="n">
+        <v>48</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>2489</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>18</v>
+      </c>
+      <c r="D188" t="n">
+        <v>19</v>
+      </c>
+      <c r="E188" t="n">
+        <v>27</v>
+      </c>
+      <c r="F188" t="n">
+        <v>48</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11</v>
+      </c>
+      <c r="C189" t="n">
+        <v>18</v>
+      </c>
+      <c r="D189" t="n">
+        <v>19</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27</v>
+      </c>
+      <c r="F189" t="n">
+        <v>48</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>10</v>
+      </c>
+      <c r="D190" t="n">
+        <v>19</v>
+      </c>
+      <c r="E190" t="n">
+        <v>41</v>
+      </c>
+      <c r="F190" t="n">
+        <v>48</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B191" t="n">
+        <v>10</v>
+      </c>
+      <c r="C191" t="n">
+        <v>19</v>
+      </c>
+      <c r="D191" t="n">
+        <v>26</v>
+      </c>
+      <c r="E191" t="n">
+        <v>27</v>
+      </c>
+      <c r="F191" t="n">
+        <v>41</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>2523</v>
+      </c>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11</v>
+      </c>
+      <c r="D192" t="n">
+        <v>19</v>
+      </c>
+      <c r="E192" t="n">
+        <v>41</v>
+      </c>
+      <c r="F192" t="n">
+        <v>48</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9</v>
+      </c>
+      <c r="C193" t="n">
+        <v>19</v>
+      </c>
+      <c r="D193" t="n">
+        <v>26</v>
+      </c>
+      <c r="E193" t="n">
+        <v>27</v>
+      </c>
+      <c r="F193" t="n">
+        <v>48</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B194" t="n">
+        <v>15</v>
+      </c>
+      <c r="C194" t="n">
+        <v>18</v>
+      </c>
+      <c r="D194" t="n">
+        <v>22</v>
+      </c>
+      <c r="E194" t="n">
+        <v>33</v>
+      </c>
+      <c r="F194" t="n">
+        <v>41</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>2550</v>
+      </c>
+      <c r="B195" t="n">
+        <v>10</v>
+      </c>
+      <c r="C195" t="n">
+        <v>15</v>
+      </c>
+      <c r="D195" t="n">
+        <v>22</v>
+      </c>
+      <c r="E195" t="n">
+        <v>33</v>
+      </c>
+      <c r="F195" t="n">
+        <v>41</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>15</v>
+      </c>
+      <c r="D196" t="n">
+        <v>22</v>
+      </c>
+      <c r="E196" t="n">
+        <v>33</v>
+      </c>
+      <c r="F196" t="n">
+        <v>48</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>2561</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15</v>
+      </c>
+      <c r="C197" t="n">
+        <v>22</v>
+      </c>
+      <c r="D197" t="n">
+        <v>26</v>
+      </c>
+      <c r="E197" t="n">
+        <v>27</v>
+      </c>
+      <c r="F197" t="n">
+        <v>33</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11</v>
+      </c>
+      <c r="C198" t="n">
+        <v>15</v>
+      </c>
+      <c r="D198" t="n">
+        <v>22</v>
+      </c>
+      <c r="E198" t="n">
+        <v>33</v>
+      </c>
+      <c r="F198" t="n">
+        <v>48</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>2570</v>
+      </c>
+      <c r="B199" t="n">
+        <v>15</v>
+      </c>
+      <c r="C199" t="n">
+        <v>18</v>
+      </c>
+      <c r="D199" t="n">
+        <v>22</v>
+      </c>
+      <c r="E199" t="n">
+        <v>27</v>
+      </c>
+      <c r="F199" t="n">
+        <v>41</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>2608</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15</v>
+      </c>
+      <c r="D200" t="n">
+        <v>22</v>
+      </c>
+      <c r="E200" t="n">
+        <v>27</v>
+      </c>
+      <c r="F200" t="n">
+        <v>48</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>2619</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11</v>
+      </c>
+      <c r="C201" t="n">
+        <v>15</v>
+      </c>
+      <c r="D201" t="n">
+        <v>22</v>
+      </c>
+      <c r="E201" t="n">
+        <v>27</v>
+      </c>
+      <c r="F201" t="n">
+        <v>48</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>2635</v>
+      </c>
+      <c r="B202" t="n">
+        <v>9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>15</v>
+      </c>
+      <c r="D202" t="n">
+        <v>18</v>
+      </c>
+      <c r="E202" t="n">
+        <v>33</v>
+      </c>
+      <c r="F202" t="n">
+        <v>48</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>2638</v>
+      </c>
+      <c r="B203" t="n">
+        <v>15</v>
+      </c>
+      <c r="C203" t="n">
+        <v>18</v>
+      </c>
+      <c r="D203" t="n">
+        <v>26</v>
+      </c>
+      <c r="E203" t="n">
+        <v>27</v>
+      </c>
+      <c r="F203" t="n">
+        <v>33</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>2644</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15</v>
+      </c>
+      <c r="D204" t="n">
+        <v>18</v>
+      </c>
+      <c r="E204" t="n">
+        <v>33</v>
+      </c>
+      <c r="F204" t="n">
+        <v>48</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>2656</v>
+      </c>
+      <c r="B205" t="n">
+        <v>10</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15</v>
+      </c>
+      <c r="D205" t="n">
+        <v>26</v>
+      </c>
+      <c r="E205" t="n">
+        <v>33</v>
+      </c>
+      <c r="F205" t="n">
+        <v>41</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>2688</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15</v>
+      </c>
+      <c r="C206" t="n">
+        <v>18</v>
+      </c>
+      <c r="D206" t="n">
+        <v>26</v>
+      </c>
+      <c r="E206" t="n">
+        <v>27</v>
+      </c>
+      <c r="F206" t="n">
+        <v>41</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>2710</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11</v>
+      </c>
+      <c r="C207" t="n">
+        <v>15</v>
+      </c>
+      <c r="D207" t="n">
+        <v>18</v>
+      </c>
+      <c r="E207" t="n">
+        <v>27</v>
+      </c>
+      <c r="F207" t="n">
+        <v>48</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>2722</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>10</v>
+      </c>
+      <c r="D208" t="n">
+        <v>15</v>
+      </c>
+      <c r="E208" t="n">
+        <v>41</v>
+      </c>
+      <c r="F208" t="n">
+        <v>48</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>2727</v>
+      </c>
+      <c r="B209" t="n">
+        <v>10</v>
+      </c>
+      <c r="C209" t="n">
+        <v>15</v>
+      </c>
+      <c r="D209" t="n">
+        <v>26</v>
+      </c>
+      <c r="E209" t="n">
+        <v>27</v>
+      </c>
+      <c r="F209" t="n">
+        <v>41</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>2733</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11</v>
+      </c>
+      <c r="D210" t="n">
+        <v>15</v>
+      </c>
+      <c r="E210" t="n">
+        <v>41</v>
+      </c>
+      <c r="F210" t="n">
+        <v>48</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>2741</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9</v>
+      </c>
+      <c r="C211" t="n">
+        <v>15</v>
+      </c>
+      <c r="D211" t="n">
+        <v>26</v>
+      </c>
+      <c r="E211" t="n">
+        <v>27</v>
+      </c>
+      <c r="F211" t="n">
+        <v>48</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>2749</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11</v>
+      </c>
+      <c r="C212" t="n">
+        <v>15</v>
+      </c>
+      <c r="D212" t="n">
+        <v>26</v>
+      </c>
+      <c r="E212" t="n">
+        <v>27</v>
+      </c>
+      <c r="F212" t="n">
+        <v>48</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>2751</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>18</v>
+      </c>
+      <c r="D213" t="n">
+        <v>22</v>
+      </c>
+      <c r="E213" t="n">
+        <v>33</v>
+      </c>
+      <c r="F213" t="n">
+        <v>41</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>2754</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11</v>
+      </c>
+      <c r="C214" t="n">
+        <v>18</v>
+      </c>
+      <c r="D214" t="n">
+        <v>22</v>
+      </c>
+      <c r="E214" t="n">
+        <v>33</v>
+      </c>
+      <c r="F214" t="n">
+        <v>41</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>2795</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>11</v>
+      </c>
+      <c r="D215" t="n">
+        <v>22</v>
+      </c>
+      <c r="E215" t="n">
+        <v>33</v>
+      </c>
+      <c r="F215" t="n">
+        <v>48</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11</v>
+      </c>
+      <c r="C216" t="n">
+        <v>22</v>
+      </c>
+      <c r="D216" t="n">
+        <v>26</v>
+      </c>
+      <c r="E216" t="n">
+        <v>27</v>
+      </c>
+      <c r="F216" t="n">
+        <v>33</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>2813</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11</v>
+      </c>
+      <c r="C217" t="n">
+        <v>18</v>
+      </c>
+      <c r="D217" t="n">
+        <v>22</v>
+      </c>
+      <c r="E217" t="n">
+        <v>27</v>
+      </c>
+      <c r="F217" t="n">
+        <v>41</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>2844</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9</v>
+      </c>
+      <c r="C218" t="n">
+        <v>22</v>
+      </c>
+      <c r="D218" t="n">
+        <v>26</v>
+      </c>
+      <c r="E218" t="n">
+        <v>27</v>
+      </c>
+      <c r="F218" t="n">
+        <v>41</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="B219" t="n">
+        <v>11</v>
+      </c>
+      <c r="C219" t="n">
+        <v>22</v>
+      </c>
+      <c r="D219" t="n">
+        <v>26</v>
+      </c>
+      <c r="E219" t="n">
+        <v>27</v>
+      </c>
+      <c r="F219" t="n">
+        <v>41</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>2880</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18</v>
+      </c>
+      <c r="D220" t="n">
+        <v>26</v>
+      </c>
+      <c r="E220" t="n">
+        <v>33</v>
+      </c>
+      <c r="F220" t="n">
+        <v>41</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>2882</v>
+      </c>
+      <c r="B221" t="n">
+        <v>10</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18</v>
+      </c>
+      <c r="D221" t="n">
+        <v>27</v>
+      </c>
+      <c r="E221" t="n">
+        <v>33</v>
+      </c>
+      <c r="F221" t="n">
+        <v>41</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>2889</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11</v>
+      </c>
+      <c r="C222" t="n">
+        <v>18</v>
+      </c>
+      <c r="D222" t="n">
+        <v>26</v>
+      </c>
+      <c r="E222" t="n">
+        <v>33</v>
+      </c>
+      <c r="F222" t="n">
+        <v>41</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9</v>
+      </c>
+      <c r="C223" t="n">
+        <v>11</v>
+      </c>
+      <c r="D223" t="n">
+        <v>18</v>
+      </c>
+      <c r="E223" t="n">
+        <v>33</v>
+      </c>
+      <c r="F223" t="n">
+        <v>48</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>2917</v>
+      </c>
+      <c r="B224" t="n">
+        <v>9</v>
+      </c>
+      <c r="C224" t="n">
+        <v>10</v>
+      </c>
+      <c r="D224" t="n">
+        <v>26</v>
+      </c>
+      <c r="E224" t="n">
+        <v>33</v>
+      </c>
+      <c r="F224" t="n">
+        <v>41</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>2928</v>
+      </c>
+      <c r="B225" t="n">
+        <v>10</v>
+      </c>
+      <c r="C225" t="n">
+        <v>11</v>
+      </c>
+      <c r="D225" t="n">
+        <v>26</v>
+      </c>
+      <c r="E225" t="n">
+        <v>33</v>
+      </c>
+      <c r="F225" t="n">
+        <v>41</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>2934</v>
+      </c>
+      <c r="B226" t="n">
+        <v>9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>10</v>
+      </c>
+      <c r="D226" t="n">
+        <v>27</v>
+      </c>
+      <c r="E226" t="n">
+        <v>33</v>
+      </c>
+      <c r="F226" t="n">
+        <v>48</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>2941</v>
+      </c>
+      <c r="B227" t="n">
+        <v>9</v>
+      </c>
+      <c r="C227" t="n">
+        <v>11</v>
+      </c>
+      <c r="D227" t="n">
+        <v>26</v>
+      </c>
+      <c r="E227" t="n">
+        <v>33</v>
+      </c>
+      <c r="F227" t="n">
+        <v>48</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>2943</v>
+      </c>
+      <c r="B228" t="n">
+        <v>10</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11</v>
+      </c>
+      <c r="D228" t="n">
+        <v>27</v>
+      </c>
+      <c r="E228" t="n">
+        <v>33</v>
+      </c>
+      <c r="F228" t="n">
+        <v>48</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>2949</v>
+      </c>
+      <c r="B229" t="n">
+        <v>9</v>
+      </c>
+      <c r="C229" t="n">
+        <v>18</v>
+      </c>
+      <c r="D229" t="n">
+        <v>26</v>
+      </c>
+      <c r="E229" t="n">
+        <v>27</v>
+      </c>
+      <c r="F229" t="n">
+        <v>41</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>2955</v>
+      </c>
+      <c r="B230" t="n">
+        <v>9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>11</v>
+      </c>
+      <c r="D230" t="n">
+        <v>18</v>
+      </c>
+      <c r="E230" t="n">
+        <v>41</v>
+      </c>
+      <c r="F230" t="n">
+        <v>48</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>2960</v>
+      </c>
+      <c r="B231" t="n">
+        <v>11</v>
+      </c>
+      <c r="C231" t="n">
+        <v>18</v>
+      </c>
+      <c r="D231" t="n">
+        <v>26</v>
+      </c>
+      <c r="E231" t="n">
+        <v>27</v>
+      </c>
+      <c r="F231" t="n">
+        <v>41</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>2989</v>
+      </c>
+      <c r="B232" t="n">
+        <v>9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>10</v>
+      </c>
+      <c r="D232" t="n">
+        <v>11</v>
+      </c>
+      <c r="E232" t="n">
+        <v>41</v>
+      </c>
+      <c r="F232" t="n">
+        <v>48</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B233" t="n">
+        <v>9</v>
+      </c>
+      <c r="C233" t="n">
+        <v>11</v>
+      </c>
+      <c r="D233" t="n">
+        <v>26</v>
+      </c>
+      <c r="E233" t="n">
+        <v>27</v>
+      </c>
+      <c r="F233" t="n">
+        <v>48</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>00111</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
